--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
   <si>
     <t>프로젝트 일정</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -697,10 +697,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>profileImagePath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MultipartFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -709,10 +705,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 프로필사진을 저장하는주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>region</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -878,6 +870,18 @@
   </si>
   <si>
     <t>url: /user/logout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(128)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profileImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 프로필사진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1269,24 +1273,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1334,6 +1320,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1759,7 +1763,7 @@
   <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1830,7 +1834,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1869,30 +1873,30 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
         <v>177</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2605,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2641,7 +2645,7 @@
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
         <v>121</v>
@@ -2652,7 +2656,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
@@ -2720,539 +2724,539 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B48" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C48" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D48" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B49" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C49" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D49" s="30" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="35" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C60" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="D60" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="B63" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="38"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="38"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="25" t="s">
         <v>198</v>
-      </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="44"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3261,44 +3265,44 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="30"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="39" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="s">
-        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>157</v>
@@ -3307,11 +3311,11 @@
         <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
+      <c r="A77" s="39" t="s">
         <v>153</v>
       </c>
       <c r="B77" t="s">
@@ -3321,21 +3325,21 @@
         <v>158</v>
       </c>
       <c r="D77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" t="s">
-        <v>208</v>
       </c>
       <c r="C78" t="s">
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3380,103 +3384,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
       <c r="AO1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3573,16 +3577,16 @@
       <c r="AM3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="27"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3679,16 +3683,16 @@
       <c r="AM4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="28"/>
+      <c r="AN4" s="44"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="5">
         <v>22</v>
       </c>
@@ -3785,7 +3789,7 @@
       <c r="AM5" s="5">
         <v>22</v>
       </c>
-      <c r="AN5" s="28"/>
+      <c r="AN5" s="44"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3905,7 +3909,7 @@
       <c r="AM6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="29"/>
+      <c r="AN6" s="45"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3931,7 +3935,7 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>

--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="224">
   <si>
     <t>프로젝트 일정</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -882,6 +882,30 @@
   </si>
   <si>
     <t>사용자 프로필사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원가입 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 api사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>써머노트 lib</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,12 +1056,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,9 +1273,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1271,9 +1286,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -1294,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -1338,6 +1350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,7 +1778,7 @@
   <dimension ref="A2:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1969,30 +1984,30 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2161,16 +2176,16 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2314,16 +2329,16 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2397,16 +2412,16 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2439,16 +2454,16 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2522,16 +2537,16 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2609,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2627,16 +2642,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2724,533 +2739,533 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="D59" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="23" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3265,43 +3280,43 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="32" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="28" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="37" t="s">
         <v>203</v>
       </c>
       <c r="B76" t="s">
@@ -3315,7 +3330,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="37" t="s">
         <v>153</v>
       </c>
       <c r="B77" t="s">
@@ -3329,7 +3344,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="37" t="s">
         <v>205</v>
       </c>
       <c r="B78" t="s">
@@ -3356,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3384,107 +3399,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
       <c r="AO1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3499,7 +3514,7 @@
       <c r="M3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -3577,20 +3592,20 @@
       <c r="AM3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="43"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="44" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -3605,7 +3620,7 @@
       <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="44" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -3683,20 +3698,20 @@
       <c r="AM4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="44"/>
+      <c r="AN4" s="42"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="5">
         <v>22</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="44">
         <v>23</v>
       </c>
       <c r="J5" s="5">
@@ -3711,7 +3726,7 @@
       <c r="M5" s="7">
         <v>27</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="44">
         <v>28</v>
       </c>
       <c r="O5" s="5">
@@ -3789,7 +3804,7 @@
       <c r="AM5" s="5">
         <v>22</v>
       </c>
-      <c r="AN5" s="44"/>
+      <c r="AN5" s="42"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3816,8 +3831,8 @@
       <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>22</v>
+      <c r="I6" s="44" t="s">
+        <v>219</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>22</v>
@@ -3831,8 +3846,8 @@
       <c r="M6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
+      <c r="N6" s="44" t="s">
+        <v>219</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>22</v>
@@ -3909,7 +3924,7 @@
       <c r="AM6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="45"/>
+      <c r="AN6" s="43"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3934,12 +3949,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -3984,12 +3999,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="14"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="44"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -4025,17 +4040,19 @@
       <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>45162</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -4067,19 +4084,25 @@
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="9">
+        <v>45167</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="44"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -4110,18 +4133,20 @@
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -4152,18 +4177,20 @@
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -4194,18 +4221,20 @@
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="44"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -4236,18 +4265,20 @@
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="44"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -4278,18 +4309,20 @@
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="44"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -4320,18 +4353,20 @@
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -4362,18 +4397,20 @@
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -4404,18 +4441,20 @@
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="5"/>
+      <c r="N18" s="44"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -4446,18 +4485,20 @@
     <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="5"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -4488,18 +4529,20 @@
     <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="44"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -4530,18 +4573,20 @@
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="44"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -4572,18 +4617,20 @@
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="44"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -4614,18 +4661,20 @@
     <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="44"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -4658,18 +4707,20 @@
         <v>66</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="44"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -4700,18 +4751,20 @@
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="44"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -4742,18 +4795,20 @@
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="44"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4784,18 +4839,20 @@
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="44"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4824,20 +4881,26 @@
       <c r="AN27" s="5"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="44"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -4867,19 +4930,23 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="44"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -4909,19 +4976,23 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
+      <c r="N30" s="44"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>

--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="228">
   <si>
     <t>프로젝트 일정</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -569,14 +569,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/board/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type: 게시판 type(trade,post)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글을 입력하는페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -809,10 +801,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>url: /board/new</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -906,6 +894,34 @@
   </si>
   <si>
     <t>써머노트 lib</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발과정에서 imagepath가 본문에 &lt;img src=""&gt;같은형식으로 저장되어, 굳이 넣지않아도 될듯?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래글을 입력하는 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/post/new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/board/trade/new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url: /board/post/new/input</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +990,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1078,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,6 +1355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1351,7 +1376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,13 +1449,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_45" displayName="표1_45" ref="A33:D40" totalsRowShown="0">
-  <autoFilter ref="A33:D40"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_45" displayName="표1_45" ref="A33:E40" totalsRowShown="0">
+  <autoFilter ref="A33:E40"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="column name"/>
     <tableColumn id="2" name="type"/>
     <tableColumn id="3" name="isNull"/>
     <tableColumn id="4" name="description"/>
+    <tableColumn id="5" name="열1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1476,8 +1502,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A3:D9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A3:D10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="title"/>
     <tableColumn id="2" name="url"/>
@@ -1777,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1849,7 +1875,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1888,30 +1914,30 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
         <v>179</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,7 +2028,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>34</v>
@@ -2161,7 +2187,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2174,8 +2200,11 @@
       <c r="D33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>85</v>
       </c>
@@ -2203,7 +2232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2231,21 +2260,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="45" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2259,7 +2291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2273,12 +2305,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
@@ -2286,7 +2318,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -2300,7 +2332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2314,7 +2346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>85</v>
       </c>
@@ -2328,7 +2360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>91</v>
       </c>
@@ -2342,7 +2374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2622,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2643,7 +2675,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>117</v>
@@ -2660,7 +2692,7 @@
         <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
         <v>121</v>
@@ -2671,7 +2703,7 @@
         <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
         <v>123</v>
@@ -2710,53 +2742,50 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" t="s">
         <v>139</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>142</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -2764,115 +2793,115 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>150</v>
+      <c r="A16" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="C18" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="27" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>162</v>
-      </c>
+      <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>165</v>
-      </c>
+      <c r="A22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -2880,185 +2909,185 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>150</v>
+      <c r="A29" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="C31" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>157</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="37" t="s">
         <v>158</v>
       </c>
+      <c r="B33" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="D33" s="28" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>162</v>
-      </c>
+      <c r="A39" s="26"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>165</v>
-      </c>
+      <c r="A40" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="25"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
+      <c r="A44" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
@@ -3066,95 +3095,95 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>150</v>
+      <c r="A47" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="C49" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="31" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="B50" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="D50" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>190</v>
-      </c>
+      <c r="A51" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="28"/>
+      <c r="A55" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
@@ -3162,199 +3191,207 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
-        <v>150</v>
+      <c r="A58" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="C60" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="32" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="C61" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>190</v>
-      </c>
+      <c r="A62" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
+      <c r="A66" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>198</v>
-      </c>
+      <c r="A68" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>199</v>
+      <c r="A71" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="C75" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="32" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" t="s">
-        <v>202</v>
+      <c r="C76" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="37" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3399,107 +3436,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
       <c r="AO1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -3514,7 +3551,7 @@
       <c r="M3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -3592,20 +3629,20 @@
       <c r="AM3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -3620,7 +3657,7 @@
       <c r="M4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="5" t="s">
@@ -3698,20 +3735,20 @@
       <c r="AM4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="42"/>
+      <c r="AN4" s="43"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="5">
         <v>22</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="38">
         <v>23</v>
       </c>
       <c r="J5" s="5">
@@ -3726,7 +3763,7 @@
       <c r="M5" s="7">
         <v>27</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="38">
         <v>28</v>
       </c>
       <c r="O5" s="5">
@@ -3804,7 +3841,7 @@
       <c r="AM5" s="5">
         <v>22</v>
       </c>
-      <c r="AN5" s="42"/>
+      <c r="AN5" s="43"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -3831,8 +3868,8 @@
       <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="44" t="s">
-        <v>219</v>
+      <c r="I6" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>22</v>
@@ -3846,8 +3883,8 @@
       <c r="M6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="44" t="s">
-        <v>219</v>
+      <c r="N6" s="38" t="s">
+        <v>216</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>22</v>
@@ -3924,7 +3961,7 @@
       <c r="AM6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="43"/>
+      <c r="AN6" s="44"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -3949,12 +3986,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="44"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -3999,12 +4036,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="14"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -4047,12 +4084,12 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -4085,7 +4122,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>68</v>
@@ -4097,12 +4134,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="44"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -4141,12 +4178,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="44"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -4185,12 +4222,12 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="44"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -4229,12 +4266,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="44"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="44"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -4273,12 +4310,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="44"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="44"/>
+      <c r="N14" s="38"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -4317,12 +4354,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="44"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="44"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -4361,12 +4398,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="44"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="44"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -4405,12 +4442,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="44"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="44"/>
+      <c r="N17" s="38"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -4449,12 +4486,12 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="44"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="44"/>
+      <c r="N18" s="38"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -4493,12 +4530,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="44"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="44"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -4537,12 +4574,12 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="44"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="44"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -4581,12 +4618,12 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -4625,12 +4662,12 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="44"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -4669,12 +4706,12 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="44"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -4715,12 +4752,12 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="44"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -4759,12 +4796,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="44"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -4803,12 +4840,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4847,12 +4884,12 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="44"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4882,10 +4919,10 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>68</v>
@@ -4895,12 +4932,12 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="44"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="44"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -4931,7 +4968,7 @@
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>68</v>
@@ -4941,12 +4978,12 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="44"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="44"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -4977,7 +5014,7 @@
     <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>68</v>
@@ -4987,12 +5024,12 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="44"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="44"/>
+      <c r="N30" s="38"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>

--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\김동휘\springProject\workspace\OhanaMarket\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED19FD-3776-410B-8D69-D22EEBE85134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280337A-B209-4E3A-A8E4-B1CBF5CE2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7980" yWindow="2595" windowWidth="20820" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\김동휘\springProject\workspace\OhanaMarket\plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280337A-B209-4E3A-A8E4-B1CBF5CE2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2595" windowWidth="20820" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="2595" windowWidth="20820" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB설계" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="244">
   <si>
     <t>프로젝트 일정</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -952,13 +946,53 @@
   </si>
   <si>
     <t>update하는 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 url을 관리하는 table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>postId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 날짜시간정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1270,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1413,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1397,10 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,101 +1487,114 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="A4:D14" totalsRowShown="0">
-  <autoFilter ref="A4:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A4:D14" totalsRowShown="0">
+  <autoFilter ref="A4:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표1_4" displayName="표1_4" ref="A18:D29" totalsRowShown="0">
-  <autoFilter ref="A18:D29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_4" displayName="표1_4" ref="A18:D29" totalsRowShown="0">
+  <autoFilter ref="A18:D29"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표1_45" displayName="표1_45" ref="A33:E40" totalsRowShown="0">
-  <autoFilter ref="A33:E40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_45" displayName="표1_45" ref="A33:E40" totalsRowShown="0">
+  <autoFilter ref="A33:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="열1"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
+    <tableColumn id="5" name="열1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1_456" displayName="표1_456" ref="A44:D50" totalsRowShown="0">
-  <autoFilter ref="A44:D50" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표1_456" displayName="표1_456" ref="A44:D50" totalsRowShown="0">
+  <autoFilter ref="A44:D50"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표1_7" displayName="표1_7" ref="A54:D60" totalsRowShown="0">
-  <autoFilter ref="A54:D60" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표1_7" displayName="표1_7" ref="A54:D60" totalsRowShown="0">
+  <autoFilter ref="A54:D60"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표1_79" displayName="표1_79" ref="A64:D70" totalsRowShown="0">
-  <autoFilter ref="A64:D70" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표1_79" displayName="표1_79" ref="A64:D70" totalsRowShown="0">
+  <autoFilter ref="A64:D70"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="column name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="isNull"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표2" displayName="표2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:D11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표1_798" displayName="표1_798" ref="A74:D79" totalsRowShown="0">
+  <autoFilter ref="A74:D79"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="title"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="url"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="parameter"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="description"/>
+    <tableColumn id="1" name="column name"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="isNull"/>
+    <tableColumn id="4" name="description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A3:D11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:D11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="title"/>
+    <tableColumn id="2" name="url"/>
+    <tableColumn id="3" name="parameter"/>
+    <tableColumn id="4" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1582,7 +1632,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1654,7 +1704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1827,11 +1877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A37"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2644,26 +2694,121 @@
         <v>42</v>
       </c>
     </row>
+    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H68" sqref="G68:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3316,7 +3461,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B78" t="s">
@@ -3325,7 +3470,7 @@
       <c r="C78" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="37" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3418,7 +3563,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
@@ -3427,12 +3572,12 @@
       <c r="C91" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="37" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B92" t="s">
@@ -3441,7 +3586,7 @@
       <c r="C92" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="37" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3484,75 +3629,80 @@
       <c r="C97" s="32"/>
       <c r="D97" s="33"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="26" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D100" s="25"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B101" s="28" t="s">
+      <c r="B105" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C105" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D105" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" t="s">
         <v>202</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C106" t="s">
         <v>34</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D106" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="42" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" t="s">
         <v>202</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C107" t="s">
         <v>34</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D107" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B108" t="s">
         <v>155</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C108" t="s">
         <v>34</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D108" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3567,7 +3717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,103 +3750,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
       <c r="AO1" s="1"/>
     </row>
     <row r="2" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
       <c r="AO2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3793,16 +3943,16 @@
       <c r="AM3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="39"/>
+      <c r="AN3" s="41"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3899,16 +4049,16 @@
       <c r="AM4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AN4" s="40"/>
+      <c r="AN4" s="42"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="4">
         <v>22</v>
       </c>
@@ -4005,7 +4155,7 @@
       <c r="AM5" s="4">
         <v>22</v>
       </c>
-      <c r="AN5" s="40"/>
+      <c r="AN5" s="42"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -4125,7 +4275,7 @@
       <c r="AM6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AN6" s="41"/>
+      <c r="AN6" s="43"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">

--- a/plan/설계문서.xlsx
+++ b/plan/설계문서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="2595" windowWidth="20820" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="7980" yWindow="2595" windowWidth="20820" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="DB설계" sheetId="1" r:id="rId1"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2807,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H68" sqref="G68:H68"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
